--- a/Madeta/Paletizace tray/Dokumentace/IPMadeta.xlsx
+++ b/Madeta/Paletizace tray/Dokumentace/IPMadeta.xlsx
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +100,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -109,7 +108,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -253,21 +261,21 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -585,7 +593,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,186 +602,193 @@
     <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
+    <row r="7" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
+    <row r="8" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
+    <row r="10" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11">
+    <row r="11" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11">
+    <row r="12" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="12">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="12">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13">
+    <row r="21" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13">
+    <row r="23" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13">
+    <row r="25" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15">
+    <row r="27" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16">
         <v>180</v>
       </c>
     </row>

--- a/Madeta/Paletizace tray/Dokumentace/IPMadeta.xlsx
+++ b/Madeta/Paletizace tray/Dokumentace/IPMadeta.xlsx
@@ -49,37 +49,37 @@
     <t xml:space="preserve">rpt1ezp810-8</t>
   </si>
   <si>
+    <t xml:space="preserve">RPT1PLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPT1Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera EAN linka 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera Kontrola linka 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera EAN linka 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera Kontrola linka 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera Kontrola palet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 PC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiskárna linka 1</t>
   </si>
   <si>
+    <t xml:space="preserve">RPT1ComauR1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiskárna linka 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPT1PLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPT1Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera EAN linka 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera Kontrola linka 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera EAN linka 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera Kontrola linka 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera Kontrola palet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPT1ComauR1</t>
   </si>
   <si>
     <t xml:space="preserve">R2 PC</t>
@@ -143,7 +143,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,20 +158,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,7 +290,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,7 +306,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -300,7 +314,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,6 +323,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,7 +413,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -399,8 +429,8 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,24 +507,20 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="9" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="9" t="n">
         <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="11" t="n">
         <v>166</v>
@@ -502,105 +528,109 @@
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="B17" s="14" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="B18" s="14" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="B19" s="14" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="B20" s="16" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="B21" s="18" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="B22" s="16" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="20" t="n">
         <v>176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="16" t="n">
         <v>177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="n">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="16" t="n">
         <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="n">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22" t="n">
         <v>180</v>
       </c>
     </row>

--- a/Madeta/Paletizace tray/Dokumentace/IPMadeta.xlsx
+++ b/Madeta/Paletizace tray/Dokumentace/IPMadeta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Rozsah</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC programovací</t>
   </si>
   <si>
     <t xml:space="preserve">rpt1ezp810-8</t>
@@ -430,7 +433,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,14 +490,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="6" t="n">
         <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>162</v>
@@ -520,7 +525,7 @@
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="11" t="n">
         <v>166</v>
@@ -528,7 +533,7 @@
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>167</v>
@@ -536,7 +541,7 @@
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>168</v>
@@ -544,7 +549,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>169</v>
@@ -552,7 +557,7 @@
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="14" t="n">
         <v>170</v>
@@ -560,7 +565,7 @@
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14" t="n">
         <v>171</v>
@@ -568,7 +573,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="14" t="n">
         <v>172</v>
@@ -576,7 +581,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="16" t="n">
         <v>173</v>
@@ -584,7 +589,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="18" t="n">
         <v>174</v>
@@ -592,7 +597,7 @@
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="16" t="n">
         <v>175</v>
@@ -600,7 +605,7 @@
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="20" t="n">
         <v>176</v>
@@ -608,7 +613,7 @@
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="16" t="n">
         <v>177</v>
@@ -622,7 +627,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>179</v>
